--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEW_HAMPSHIRE_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEW_HAMPSHIRE_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C12">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -685,12 +685,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C23">
@@ -830,7 +830,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C33">
@@ -856,7 +856,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C35">
@@ -895,7 +895,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C38">
@@ -921,7 +921,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C40">
@@ -934,7 +934,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C41">
@@ -986,7 +986,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C45">
@@ -1043,7 +1043,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C49">
@@ -1087,7 +1087,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C52">
@@ -1100,7 +1100,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C53">
@@ -1152,7 +1152,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C57">
@@ -1450,7 +1450,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C78">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C86">
@@ -1577,7 +1577,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C87">
@@ -1603,7 +1603,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C89">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C93">
@@ -1906,7 +1906,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C110">
@@ -2075,76 +2075,6 @@
       </c>
       <c r="D122">
         <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEW_HAMPSHIRE_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEW_HAMPSHIRE_2016.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Comala</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Villa De Álvarez</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>León</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Atlamajalcingo Del Monte</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tuxcacuesco</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Taretan</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Mazatepec</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1373,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1404,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1435,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Santa Lucía Monteverde</t>
@@ -1448,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -1461,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1492,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1505,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Teopantlán</t>
@@ -1518,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -1531,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -1544,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1575,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -1588,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -1601,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1614,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1627,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Tequisquiapan</t>
@@ -1640,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1671,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -1684,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -1697,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1710,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1723,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1754,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1785,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1816,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -1829,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -1842,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1873,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1904,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -1917,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -1930,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -1943,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -1956,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -1969,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2000,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -2013,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -2026,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -2039,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -2052,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
